--- a/Assets/_Project/ExcelDesign/QuestDesign.xlsx
+++ b/Assets/_Project/ExcelDesign/QuestDesign.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Resources\match 3 merge\Assets\_Project\ExcelDesign\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyUnitProject\match_3\Assets\_Project\ExcelDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFBB798-28B8-4E02-B263-D0B195A1CE8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24975" windowHeight="10155"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -69,13 +67,16 @@
   </si>
   <si>
     <t>ITEM_SHUFFLE:1,ITEM_SUGGEST</t>
+  </si>
+  <si>
+    <t>[KEY]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,16 +90,43 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFADD8E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7F50"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -121,17 +149,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -412,71 +465,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1"/>
-    <col min="4" max="4" width="39.7109375" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="30.44140625" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" customWidth="1"/>
+    <col min="5" max="5" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/_Project/ExcelDesign/QuestDesign.xlsx
+++ b/Assets/_Project/ExcelDesign/QuestDesign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyUnitProject\match_3\Assets\_Project\ExcelDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFBB798-28B8-4E02-B263-D0B195A1CE8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65D7EFC-FA42-42C0-8EE0-1D946F79FF37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,12 +48,6 @@
     <t>Login one time</t>
   </si>
   <si>
-    <t>LOGIN:TRUE</t>
-  </si>
-  <si>
-    <t>ITEM_SHUFFLE:1,ITEM_UNDO</t>
-  </si>
-  <si>
     <t>QUEST_002</t>
   </si>
   <si>
@@ -66,10 +60,16 @@
     <t>PLAY:3</t>
   </si>
   <si>
-    <t>ITEM_SHUFFLE:1,ITEM_SUGGEST</t>
-  </si>
-  <si>
     <t>[KEY]</t>
+  </si>
+  <si>
+    <t>ITEM_SHUFFLE:1,ITEM_UNDO:1</t>
+  </si>
+  <si>
+    <t>LOGIN:1</t>
+  </si>
+  <si>
+    <t>ITEM_SHUFFLE:1,ITEM_SUGGEST:1</t>
   </si>
 </sst>
 </file>
@@ -469,7 +469,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,7 +488,7 @@
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -514,27 +514,27 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
